--- a/Masterarbeit_daten/6.6.4/Gold.xlsx
+++ b/Masterarbeit_daten/6.6.4/Gold.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14385" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -12,8 +12,9 @@
     <sheet name="Metal" sheetId="3" r:id="rId3"/>
     <sheet name="Palladium" sheetId="4" r:id="rId4"/>
     <sheet name="Partprice" sheetId="5" r:id="rId5"/>
+    <sheet name="Inputs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="571">
   <si>
     <t>Größensicht</t>
   </si>
@@ -1541,6 +1542,201 @@
   </si>
   <si>
     <t>Rest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminium (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aluminiumoxid (Al2O3) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anorganische Flammschutzmittel (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antimonoxid (Diantimontrioxid) (Sb2O3) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blei (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blei in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chrom in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cobalt in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eisen in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elektrolyt (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epoxidharz (EP) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethylen-Propylen-Dien-Kautschuk (EPDM) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ferrite (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glas (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasfasern (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kupfer (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kupfer in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nickel in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palladium in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Papier (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Platin in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyamid 6 (PA6) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polyphenylensulfid (PPS) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polystyrol (PS) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polytetrafluorethylen (PTFE) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silber (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silber in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silicium (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siliciumdioxid (SiO2) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Silikon (Sl) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stahl, unlegiert (Fe-C) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tetrabrombisphenol A (TBBA) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ungesättigte Polyester (UP) (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zink (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zink in Legierung (E) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinn (E) </t>
+  </si>
+  <si>
+    <t>Diode MELF (130mg) D2.6x5.2 PE</t>
+  </si>
+  <si>
+    <t>Diode power DO214/219 (93mg) 4.3x3.6x2.3 PE</t>
+  </si>
+  <si>
+    <t>IC TQFP 100 (520mg) 14x14x1.0 PE</t>
+  </si>
+  <si>
+    <t>IC TQFP 32 (70mg) 5x5x1.0 PE</t>
+  </si>
+  <si>
+    <t>IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</t>
+  </si>
+  <si>
+    <t>Kondensator Al-Elko SMD (300mg) D6.3x5.4 PE</t>
+  </si>
+  <si>
+    <t>Kondensator Keramik MLCC 01005 (0,054 mg) 0,4x0,2x0,22 (Nichtedelmetalle) PE</t>
+  </si>
+  <si>
+    <t>Kondensator Keramik MLCC 0603 (6mg) 1.6x0.8x0.8 PE</t>
+  </si>
+  <si>
+    <t>Kondensator Keramik MLCC 2220 (450mg) 5.7x5x2.5 PE</t>
+  </si>
+  <si>
+    <t>LED SMD low-efficiency max 50mA (35mg) without Au 3.2x2.8x1.9 PE</t>
+  </si>
+  <si>
+    <t>Leiterplatte 2-Lagen starr FR4 mit chem.-elek. AuNi Finish (subtraktive Methode) PE</t>
+  </si>
+  <si>
+    <t>Quartz Crystal (500mg) 11.05x4.65x2.5 PE</t>
+  </si>
+  <si>
+    <t>Schalter Tact (242mg) 6.2x6.3x1.8 PE</t>
+  </si>
+  <si>
+    <t>Spule Miniatur gewickelt SDR1006 (1.16g) D9.8x5.8 PE</t>
+  </si>
+  <si>
+    <t>Spule Multilayer Chip 1812 (108mg) 4.5x3.2x1.5 PE</t>
+  </si>
+  <si>
+    <t>Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</t>
+  </si>
+  <si>
+    <t>Transistor signal SOT23 8 leads (18mg) 1.4x3x2 PE</t>
+  </si>
+  <si>
+    <t>Widerstand Dickfilm Flat Chip 0402 (0.75mg) PE</t>
+  </si>
+  <si>
+    <t>Widerstand Dickfilm Flat Chip 0603 (2.1mg) PE</t>
+  </si>
+  <si>
+    <t>Widerstand Dickfilm Flat Chip 1206 (8.9mg) PE</t>
+  </si>
+  <si>
+    <t>hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zinn in Legierung (E) </t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Lotpaste SnAg3.5 PE</t>
   </si>
 </sst>
 </file>
@@ -1548,9 +1744,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1560,6 +1756,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1586,7 +1790,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1594,10 +1798,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1615,7 +1822,272 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>Gold distribution over Arduino Due parts</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14213180337670195"/>
+          <c:y val="4.7806075815183598E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.32720411212589035"/>
+          <c:y val="0.15213334991914418"/>
+          <c:w val="0.3522811970265618"/>
+          <c:h val="0.49105880571345134"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>16,64 mg</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>2,24 mg</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0,26 mg</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>0,09 mg</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>47,25 mg</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="bestFit"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="bestFit"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Gold!$A$3,Gold!$A$4,Gold!$A$5,Gold!$A$8,Gold!$A$9)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>IC TQFP 100 (520mg) 14x14x1.0 PE</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>IC TQFP 32 (70mg) 5x5x1.0 PE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Kondensator Keramik MLCC 0603 (6mg) 1.6x0.8x0.8 PE</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Kondensator Keramik MLCC 2220 (450mg) 5.7x5x2.5 PE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Gold!$D$3,Gold!$D$4,Gold!$D$5,Gold!$D$8,Gold!$D$9)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0.00</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>16.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25509100000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0000000000000108E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.250000000000099</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="bestFit"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1637,291 +2109,46 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Gold distribution in the Arduino Due</a:t>
+              <a:t>Material composition of Arduino</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Due parts</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.28635739441069158"/>
+          <c:y val="3.9570148561013083E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34800076061229068"/>
+          <c:y val="0.17573593789600275"/>
+          <c:w val="0.34751119646233619"/>
+          <c:h val="0.42882745789168841"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>16.64 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>2.24 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>0.255091 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>0.09 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>47.25 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>0.9976 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>(Gold!$G$2,Gold!$H$2,Gold!$I$2,Gold!$O$2)</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>GLO: IC TQFP 100 (520mg) 14x14x1.0 PE</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>GLO: IC TQFP 32 (70mg) 5x5x1.0 PE</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>GLO: IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>GLO: Leiterplatte 2-Lagen starr FR4 mit chem.-elek. AuNi Finish (subtraktive Methode) PE</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>(Gold!$G$5,Gold!$H$5,Gold!$I$5,Gold!$O$5)</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>16.64</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2400000000000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.25509100000000001</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.99759999999999993</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Arduino</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Due m</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>aterial composition</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -1936,124 +2163,124 @@
               <c:strCache>
                 <c:ptCount val="40"/>
                 <c:pt idx="0">
-                  <c:v>Aluminium (E) [kg]</c:v>
+                  <c:v>Aluminium (E) </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aluminiumoxid (Al2O3) (E) [kg]</c:v>
+                  <c:v>Aluminiumoxid (Al2O3) (E) </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Anorganische Flammschutzmittel (E) [kg]</c:v>
+                  <c:v>Anorganische Flammschutzmittel (E) </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Antimonoxid (Diantimontrioxid) (Sb2O3) (E) [kg]</c:v>
+                  <c:v>Antimonoxid (Diantimontrioxid) (Sb2O3) (E) </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Blei (E) [kg]</c:v>
+                  <c:v>Blei (E) </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Blei in Legierung (E) [kg]</c:v>
+                  <c:v>Blei in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Chrom in Legierung (E) [kg]</c:v>
+                  <c:v>Chrom in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Cobalt in Legierung (E) [kg]</c:v>
+                  <c:v>Cobalt in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Eisen in Legierung (E) [kg]</c:v>
+                  <c:v>Eisen in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Elektrolyt (E) [kg]</c:v>
+                  <c:v>Elektrolyt (E) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Epoxidharz (EP) (E) [kg]</c:v>
+                  <c:v>Epoxidharz (EP) (E) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Ethylen-Propylen-Dien-Kautschuk (EPDM) (E) [kg]</c:v>
+                  <c:v>Ethylen-Propylen-Dien-Kautschuk (EPDM) (E) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Ferrite (E) [kg]</c:v>
+                  <c:v>Ferrite (E) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Glas (E) [kg]</c:v>
+                  <c:v>Glas (E) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Glasfasern (E) [kg]</c:v>
+                  <c:v>Glasfasern (E) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Gold (E) [kg]</c:v>
+                  <c:v>Gold (E) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Gold in Legierung (E) [kg]</c:v>
+                  <c:v>Gold in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Kupfer (E) [kg]</c:v>
+                  <c:v>Kupfer (E) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Kupfer in Legierung (E) [kg]</c:v>
+                  <c:v>Kupfer in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Nickel (E) [kg]</c:v>
+                  <c:v>Nickel (E) </c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>Nickel in Legierung (E) [kg]</c:v>
+                  <c:v>Nickel in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>Palladium in Legierung (E) [kg]</c:v>
+                  <c:v>Palladium in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>Papier (E) [kg]</c:v>
+                  <c:v>Papier (E) </c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>Platin in Legierung (E) [kg]</c:v>
+                  <c:v>Platin in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>Polyamid 6 (PA6) (E) [kg]</c:v>
+                  <c:v>Polyamid 6 (PA6) (E) </c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>Polyphenylensulfid (PPS) (E) [kg]</c:v>
+                  <c:v>Polyphenylensulfid (PPS) (E) </c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>Polystyrol (PS) (E) [kg]</c:v>
+                  <c:v>Polystyrol (PS) (E) </c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>Polytetrafluorethylen (PTFE) (E) [kg]</c:v>
+                  <c:v>Polytetrafluorethylen (PTFE) (E) </c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>Silber (E) [kg]</c:v>
+                  <c:v>Silber (E) </c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>Silber in Legierung (E) [kg]</c:v>
+                  <c:v>Silber in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>Silicium (E) [kg]</c:v>
+                  <c:v>Silicium (E) </c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>Siliciumdioxid (SiO2) (E) [kg]</c:v>
+                  <c:v>Siliciumdioxid (SiO2) (E) </c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>Silikon (Sl) (E) [kg]</c:v>
+                  <c:v>Silikon (Sl) (E) </c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>Stahl, unlegiert (Fe-C) (E) [kg]</c:v>
+                  <c:v>Stahl, unlegiert (Fe-C) (E) </c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>Tetrabrombisphenol A (TBBA) (E) [kg]</c:v>
+                  <c:v>Tetrabrombisphenol A (TBBA) (E) </c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>Ungesättigte Polyester (UP) (E) [kg]</c:v>
+                  <c:v>Ungesättigte Polyester (UP) (E) </c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>Zink (E) [kg]</c:v>
+                  <c:v>Zink (E) </c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>Zink in Legierung (E) [kg]</c:v>
+                  <c:v>Zink in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>Zinn (E) [kg]</c:v>
+                  <c:v>Zinn (E) </c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>Zinn in Legierung (E) [kg]</c:v>
+                  <c:v>Zinn in Legierung (E) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2189,8 +2416,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2202,7 +2430,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.4200648021365123E-2"/>
+          <c:y val="0.69207188870835712"/>
+          <c:w val="0.95337392216030181"/>
+          <c:h val="0.25586825343017433"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2211,7 +2448,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="1100"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2230,7 +2467,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2251,32 +2488,76 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="de-DE"/>
+              <a:t>Material</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> prices of </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="de-DE"/>
               <a:t>Arduino</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Due m</a:t>
+              <a:rPr lang="de-DE" baseline="0"/>
+              <a:t> Due parts </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>aterial price</a:t>
-            </a:r>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24544461637597678"/>
+          <c:y val="2.9692600006901805E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26530567740580097"/>
+          <c:y val="0.21219667531441624"/>
+          <c:w val="0.47377801830446298"/>
+          <c:h val="0.5270429240668818"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>$2,81286856 </a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:numFmt formatCode="[$$-409]#,##0.000" sourceLinked="0"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2287,256 +2568,139 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Metal!$B$2:$B$41</c:f>
+              <c:f>(Metal!$B$2,Metal!$B$6:$B$9,Metal!$B$17:$B$23,Metal!$B$25,Metal!$B$30:$B$31,Metal!$B$35,Metal!$B$38:$B$41)</c:f>
               <c:strCache>
-                <c:ptCount val="40"/>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>Aluminium (E) [kg]</c:v>
+                  <c:v>Aluminium (E) </c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>Aluminiumoxid (Al2O3) (E) [kg]</c:v>
+                  <c:v>Blei (E) </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Anorganische Flammschutzmittel (E) [kg]</c:v>
+                  <c:v>Blei in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>Antimonoxid (Diantimontrioxid) (Sb2O3) (E) [kg]</c:v>
+                  <c:v>Chrom in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>Blei (E) [kg]</c:v>
+                  <c:v>Cobalt in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Blei in Legierung (E) [kg]</c:v>
+                  <c:v>Gold (E) </c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>Chrom in Legierung (E) [kg]</c:v>
+                  <c:v>Gold in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Cobalt in Legierung (E) [kg]</c:v>
+                  <c:v>Kupfer (E) </c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>Eisen in Legierung (E) [kg]</c:v>
+                  <c:v>Kupfer in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>Elektrolyt (E) [kg]</c:v>
+                  <c:v>Nickel (E) </c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>Epoxidharz (EP) (E) [kg]</c:v>
+                  <c:v>Nickel in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>Ethylen-Propylen-Dien-Kautschuk (EPDM) (E) [kg]</c:v>
+                  <c:v>Palladium in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>Ferrite (E) [kg]</c:v>
+                  <c:v>Platin in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>Glas (E) [kg]</c:v>
+                  <c:v>Silber (E) </c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>Glasfasern (E) [kg]</c:v>
+                  <c:v>Silber in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>Gold (E) [kg]</c:v>
+                  <c:v>Stahl, unlegiert (Fe-C) (E) </c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>Gold in Legierung (E) [kg]</c:v>
+                  <c:v>Zink (E) </c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>Kupfer (E) [kg]</c:v>
+                  <c:v>Zink in Legierung (E) </c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>Kupfer in Legierung (E) [kg]</c:v>
+                  <c:v>Zinn (E) </c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Nickel (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>Nickel in Legierung (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>Palladium in Legierung (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>Papier (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>Platin in Legierung (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>Polyamid 6 (PA6) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>Polyphenylensulfid (PPS) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>Polystyrol (PS) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>Polytetrafluorethylen (PTFE) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>Silber (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>Silber in Legierung (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>Silicium (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Siliciumdioxid (SiO2) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Silikon (Sl) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Stahl, unlegiert (Fe-C) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Tetrabrombisphenol A (TBBA) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Ungesättigte Polyester (UP) (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Zink (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>Zink in Legierung (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>Zinn (E) [kg]</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>Zinn in Legierung (E) [kg]</c:v>
+                  <c:v>Zinn in Legierung (E) </c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Metal!$E$2:$E$41</c:f>
+              <c:f>(Metal!$E$2,Metal!$E$6:$E$8,Metal!$E$9,Metal!$E$17:$E$23,Metal!$E$23,Metal!$E$25,Metal!$E$30,Metal!$E$31,Metal!$E$35,Metal!$E$38:$E$41)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="40"/>
+                <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>6.6441207377999998E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1.982574E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5119999999999999E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1.420362E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.982574E-6</c:v>
+                  <c:v>2.2369600000000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.5119999999999999E-8</c:v>
+                  <c:v>0.85362609840000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.420362E-5</c:v>
+                  <c:v>2.0072160000000041</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2369600000000001E-6</c:v>
+                  <c:v>3.7554030359999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.9627131216000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.2016660082999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.0215944600000002E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2.8128685603999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>2.8128685603999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.2026152</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.58725225057599995</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.85362609840000003</c:v>
+                  <c:v>0.10402624000000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.0072160000000041</c:v>
+                  <c:v>9.0950234000000002E-5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.7554030359999997E-2</c:v>
+                  <c:v>4.1030192250000001E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.9627131216000002E-2</c:v>
+                  <c:v>3.8601E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.2016660082999999E-3</c:v>
+                  <c:v>5.5418594000000005E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2.0215944600000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.8128685603999997</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.2026152</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.58725225057599995</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.10402624000000001</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>9.0950234000000002E-5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>4.1030192250000001E-6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.8601E-4</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.5418594000000005E-4</c:v>
-                </c:pt>
-                <c:pt idx="39">
                   <c:v>0.102760884156</c:v>
                 </c:pt>
               </c:numCache>
@@ -2545,7 +2709,7 @@
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2557,7 +2721,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6936130950808674E-2"/>
+          <c:y val="0.79417747588250176"/>
+          <c:w val="0.86879702735226605"/>
+          <c:h val="0.17022962945931475"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2566,7 +2739,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="1100"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2576,7 +2749,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2585,7 +2758,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2606,14 +2779,9 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Palladium distribution in the Arduino Due</a:t>
+              <a:rPr lang="de-DE"/>
+              <a:t>Palladium distribution over Arduino due parts</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2622,7 +2790,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.30386399348000936"/>
+          <c:y val="0.13595396365512086"/>
+          <c:w val="0.37735979977678058"/>
+          <c:h val="0.49782963314375861"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -2639,11 +2817,12 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.0128576 mg</a:t>
+                      <a:t>0,0128576 mg</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2655,8 +2834,8 @@
               <c:idx val="1"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="9.7143263342082245E-2"/>
-                  <c:y val="-1.5234940146873745E-2"/>
+                  <c:x val="3.79248838135538E-2"/>
+                  <c:y val="5.355673780895312E-3"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2666,11 +2845,12 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.162 mg</a:t>
+                      <a:t>0,162 mg</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2688,11 +2868,12 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>85.4 mg</a:t>
+                      <a:t>85,4 mg</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2710,11 +2891,12 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.00936 mg</a:t>
+                      <a:t>1,79775 mg</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2732,11 +2914,12 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>1.79775 mg</a:t>
+                      <a:t>0,5355 mg</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -2744,55 +2927,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
             </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-3.2900918635170605E-2"/>
-                  <c:y val="-3.9026839704605402E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>0.5355 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:r>
-                      <a:rPr lang="en-US"/>
-                      <a:t>9.078 mg</a:t>
-                    </a:r>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-            </c:dLbl>
+            <c:dLblPos val="bestFit"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
@@ -2803,39 +2938,36 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>(Palladium!$H$1,Palladium!$K$1,Palladium!$L$1,Palladium!$N$1,Palladium!$U$1,Palladium!$V$1,Palladium!$W$1)</c:f>
+              <c:f>(Palladium!$A$5,Palladium!$A$8,Palladium!$A$9,Palladium!$A$17,Palladium!$A$18,Palladium!$A$19)</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>GLO: IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
+                  <c:v>IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GLO: Kondensator Keramik MLCC 0603 (6mg) 1.6x0.8x0.8 PE</c:v>
+                  <c:v>Kondensator Keramik MLCC 0603 (6mg) 1.6x0.8x0.8 PE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GLO: Kondensator Keramik MLCC 2220 (450mg) 5.7x5x2.5 PE</c:v>
+                  <c:v>Kondensator Keramik MLCC 2220 (450mg) 5.7x5x2.5 PE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLO: Leiterplatte 2-Lagen starr FR4 mit chem.-elek. AuNi Finish (subtraktive Methode) PE</c:v>
+                  <c:v>Widerstand Dickfilm Flat Chip 0402 (0.75mg) PE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLO: Widerstand Dickfilm Flat Chip 0402 (0.75mg) PE</c:v>
+                  <c:v>Widerstand Dickfilm Flat Chip 0603 (2.1mg) PE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GLO: Widerstand Dickfilm Flat Chip 0603 (2.1mg) PE</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GLO: Widerstand Dickfilm Flat Chip 1206 (8.9mg) PE</c:v>
+                  <c:v>Widerstand Dickfilm Flat Chip 1206 (8.9mg) PE</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Palladium!$H$3,Palladium!$K$3,Palladium!$L$3,Palladium!$N$3,Palladium!$U$3,Palladium!$V$3,Palladium!$W$3)</c:f>
+              <c:f>(Palladium!$C$5,Palladium!$C$8,Palladium!$C$9,Palladium!$C$17,Palladium!$C$18,Palladium!$C$19)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1.28576E-2</c:v>
                 </c:pt>
@@ -2846,15 +2978,12 @@
                   <c:v>85.4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.3600000000000003E-3</c:v>
+                  <c:v>1.79775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.79775</c:v>
+                  <c:v>0.53549999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.53549999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>9.0779999999999994</c:v>
                 </c:pt>
               </c:numCache>
@@ -2862,8 +2991,9 @@
           </c:val>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="bestFit"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -2875,7 +3005,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14364528339715918"/>
+          <c:y val="0.66229816505989392"/>
+          <c:w val="0.69685165005601879"/>
+          <c:h val="0.31977036422064464"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2884,7 +3023,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2894,7 +3033,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2903,7 +3042,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3373,7 +3512,7 @@
           <a:pPr rtl="0">
             <a:defRPr/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3388,7 +3527,7 @@
       <a:pPr>
         <a:defRPr sz="1100"/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3402,7 +3541,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3434,12 +3573,29 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.38780752208483743"/>
+          <c:y val="2.8770090366081844E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31647414559853926"/>
+          <c:y val="0.13617443453975975"/>
+          <c:w val="0.37129126404990515"/>
+          <c:h val="0.6108552418076183"/>
+        </c:manualLayout>
+      </c:layout>
       <c:pieChart>
         <c:varyColors val="1"/>
         <c:ser>
@@ -3566,7 +3722,7 @@
                   <a:p>
                     <a:r>
                       <a:rPr lang="en-US"/>
-                      <a:t>0.250 e</a:t>
+                      <a:t>0.250 €</a:t>
                     </a:r>
                   </a:p>
                 </c:rich>
@@ -3746,40 +3902,40 @@
               <c:strCache>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>GLO: Diode MELF (130mg) D2.6x5.2 PE</c:v>
+                  <c:v>Diode MELF (130mg) D2.6x5.2 PE</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>GLO: IC TQFP 100 (520mg) 14x14x1.0 PE</c:v>
+                  <c:v>IC TQFP 100 (520mg) 14x14x1.0 PE</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>GLO: IC TQFP 32 (70mg) 5x5x1.0 PE</c:v>
+                  <c:v>IC TQFP 32 (70mg) 5x5x1.0 PE</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>GLO: IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
+                  <c:v>IC TSSOP 8 (28mg) 3.0x2.9x1.2 flash PE</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>GLO: Kondensator Al-Elko SMD (300mg) D6.3x5.4 PE</c:v>
+                  <c:v>Kondensator Al-Elko SMD (300mg) D6.3x5.4 PE</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>GLO: LED SMD low-efficiency max 50mA (35mg) without Au 3.2x2.8x1.9 PE</c:v>
+                  <c:v>LED SMD low-efficiency max 50mA (35mg) without Au 3.2x2.8x1.9 PE</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>GLO: Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
+                  <c:v>Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>GLO: Schalter Tact (242mg) 6.2x6.3x1.8 PE</c:v>
+                  <c:v>Schalter Tact (242mg) 6.2x6.3x1.8 PE</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>GLO: Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
+                  <c:v>Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>GLO: Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
+                  <c:v>Quartz Crystal (500mg) 11.05x4.65x2.5 PE</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>GLO: Spule Multilayer Chip 1812 (108mg) 4.5x3.2x1.5 PE</c:v>
+                  <c:v>Spule Multilayer Chip 1812 (108mg) 4.5x3.2x1.5 PE</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>GLO: Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
+                  <c:v>Transistor signal SOT223 3 leads (110mg) 3.8x7.65x2.3 PE</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>Rest</c:v>
@@ -3850,7 +4006,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.3238072073733168E-2"/>
+          <c:y val="0.76976692025287885"/>
+          <c:w val="0.93579529065899059"/>
+          <c:h val="0.19963826989980216"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -3859,7 +4024,7 @@
           <a:pPr rtl="0">
             <a:defRPr sz="1100"/>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3879,20 +4044,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>104214</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>67235</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>575982</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>156882</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>5188324</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3914,16 +4079,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>64434</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>24370</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>585106</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>101974</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>105334</xdr:rowOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>554181</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>138545</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3944,23 +4109,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>571501</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>346364</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>34636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>2904</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>80964</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3981,20 +4144,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>4761</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>340178</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>77559</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>435428</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="3" name="Diagramm 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4046,16 +4209,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>933449</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>122463</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>136071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>421820</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>167367</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4342,18 +4505,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF422"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView topLeftCell="AC25" workbookViewId="0">
+      <selection activeCell="F41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="39.140625" customWidth="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1"/>
     <col min="27" max="27" width="33.5703125" customWidth="1"/>
     <col min="28" max="28" width="46.85546875" customWidth="1"/>
+    <col min="32" max="32" width="23.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
@@ -41189,341 +41355,339 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:Y5"/>
+  <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V23" sqref="V23"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>16</v>
-      </c>
-      <c r="R2" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>20</v>
-      </c>
-      <c r="V2" t="s">
-        <v>21</v>
-      </c>
-      <c r="W2" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>0</v>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>546</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="7">
+        <f>-(B1+C1)*1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="7">
+        <f>-(B2+C2)*1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>548</v>
+      </c>
+      <c r="B3" s="1">
+        <v>-1.664E-5</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>-1.664E-5</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="D3" s="7">
+        <f t="shared" ref="D3:D10" si="0">-(B3+C3)*1000000</f>
+        <v>16.64</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4" s="1">
         <v>-2.2400000000000002E-6</v>
       </c>
-      <c r="I3" s="1">
-        <v>-2.5509100000000002E-7</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>-9.9759999999999999E-7</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
         <v>0</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>-9.0000000000000104E-8</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-4.7250000000000098E-5</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>444</v>
-      </c>
-      <c r="B5">
-        <f>-B3*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <f>-C3*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <f t="shared" ref="D5:Y5" si="0">-D3*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
-        <v>16.64</v>
-      </c>
-      <c r="H5">
+      <c r="D4" s="7">
         <f t="shared" si="0"/>
         <v>2.2400000000000002</v>
       </c>
-      <c r="I5">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.5509100000000002E-7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
         <f t="shared" si="0"/>
         <v>0.25509100000000001</v>
       </c>
-      <c r="J5">
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K5">
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5">
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-9.0000000000000104E-8</v>
+      </c>
+      <c r="D8" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M5">
+        <v>9.0000000000000108E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-4.7250000000000098E-5</v>
+      </c>
+      <c r="D9" s="7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N5">
+        <v>47.250000000000099</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O5">
-        <f t="shared" si="0"/>
-        <v>0.99759999999999993</v>
-      </c>
-      <c r="P5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" s="7">
+        <f t="shared" ref="D11:D19" si="1">-(B11+C11)*1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>444</v>
+      </c>
+      <c r="D21" s="7">
+        <f>SUM(D1:D19)</f>
+        <v>66.475091000000106</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C49" s="1"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41533,22 +41697,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E42"/>
+  <dimension ref="B1:AH42"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="45.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
         <v>445</v>
       </c>
       <c r="C1" t="s">
@@ -41561,9 +41725,9 @@
         <v>448</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>41</v>
+    <row r="2" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>507</v>
       </c>
       <c r="C2">
         <v>3.1638670179999999E-4</v>
@@ -41576,9 +41740,9 @@
         <v>6.6441207377999998E-4</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>42</v>
+    <row r="3" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>508</v>
       </c>
       <c r="C3">
         <v>2.5105142999999998E-3</v>
@@ -41591,9 +41755,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>43</v>
+    <row r="4" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B4" s="6" t="s">
+        <v>509</v>
       </c>
       <c r="C4" s="1">
         <v>1.7401199999999999E-8</v>
@@ -41606,9 +41770,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>44</v>
+    <row r="5" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>510</v>
       </c>
       <c r="C5" s="1">
         <v>1.4131835999999999E-5</v>
@@ -41621,9 +41785,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>45</v>
+    <row r="6" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>511</v>
       </c>
       <c r="C6" s="1">
         <v>9.91287E-7</v>
@@ -41636,9 +41800,9 @@
         <v>1.982574E-6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>46</v>
+    <row r="7" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>512</v>
       </c>
       <c r="C7" s="1">
         <v>1.256E-8</v>
@@ -41651,9 +41815,9 @@
         <v>2.5119999999999999E-8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>47</v>
+    <row r="8" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>513</v>
       </c>
       <c r="C8" s="1">
         <v>5.2606000000000001E-6</v>
@@ -41666,9 +41830,9 @@
         <v>1.420362E-5</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>48</v>
+    <row r="9" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>514</v>
       </c>
       <c r="C9" s="1">
         <v>7.2160000000000006E-8</v>
@@ -41680,10 +41844,13 @@
         <f t="shared" si="0"/>
         <v>2.2369600000000001E-6</v>
       </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>49</v>
+      <c r="AH9" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>515</v>
       </c>
       <c r="C10" s="1">
         <v>3.7001800000000002E-5</v>
@@ -41696,9 +41863,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>50</v>
+    <row r="11" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>516</v>
       </c>
       <c r="C11" s="1">
         <v>6.6000000000000005E-5</v>
@@ -41711,9 +41878,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>51</v>
+    <row r="12" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>517</v>
       </c>
       <c r="C12">
         <v>5.5667235900000002E-3</v>
@@ -41726,9 +41893,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>52</v>
+    <row r="13" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>518</v>
       </c>
       <c r="C13">
         <v>1.044E-4</v>
@@ -41741,9 +41908,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>53</v>
+    <row r="14" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B14" s="6" t="s">
+        <v>519</v>
       </c>
       <c r="C14">
         <v>5.5944999999999996E-4</v>
@@ -41756,9 +41923,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>54</v>
+    <row r="15" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>520</v>
       </c>
       <c r="C15" s="1">
         <v>8.4201699999999997E-5</v>
@@ -41771,9 +41938,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>55</v>
+    <row r="16" spans="2:34" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>521</v>
       </c>
       <c r="C16">
         <v>5.3119999999999999E-3</v>
@@ -41787,8 +41954,8 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>56</v>
+      <c r="B17" s="6" t="s">
+        <v>522</v>
       </c>
       <c r="C17" s="1">
         <v>2.0132691E-5</v>
@@ -41802,8 +41969,8 @@
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>57</v>
+      <c r="B18" s="6" t="s">
+        <v>523</v>
       </c>
       <c r="C18" s="1">
         <v>4.7340000000000099E-5</v>
@@ -41817,8 +41984,8 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>58</v>
+      <c r="B19" s="6" t="s">
+        <v>524</v>
       </c>
       <c r="C19">
         <v>5.6900045999999996E-3</v>
@@ -41832,8 +41999,8 @@
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>59</v>
+      <c r="B20" s="6" t="s">
+        <v>525</v>
       </c>
       <c r="C20">
         <v>2.9738077600000002E-3</v>
@@ -41847,8 +42014,8 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>60</v>
+      <c r="B21" s="6" t="s">
+        <v>526</v>
       </c>
       <c r="C21" s="1">
         <v>7.3721840999999995E-5</v>
@@ -41862,8 +42029,8 @@
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>61</v>
+      <c r="B22" s="6" t="s">
+        <v>527</v>
       </c>
       <c r="C22">
         <v>1.2402419999999999E-4</v>
@@ -41877,8 +42044,8 @@
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>62</v>
+      <c r="B23" s="6" t="s">
+        <v>528</v>
       </c>
       <c r="C23" s="1">
         <v>9.6995467599999996E-5</v>
@@ -41892,8 +42059,8 @@
       </c>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>63</v>
+      <c r="B24" s="6" t="s">
+        <v>529</v>
       </c>
       <c r="C24" s="1">
         <v>2.94E-5</v>
@@ -41907,8 +42074,8 @@
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>64</v>
+      <c r="B25" s="6" t="s">
+        <v>530</v>
       </c>
       <c r="C25" s="1">
         <v>4.7339999999999999E-6</v>
@@ -41922,8 +42089,8 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>65</v>
+      <c r="B26" s="6" t="s">
+        <v>531</v>
       </c>
       <c r="C26" s="1">
         <v>3.9895799999999998E-5</v>
@@ -41937,8 +42104,8 @@
       </c>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
-        <v>66</v>
+      <c r="B27" s="6" t="s">
+        <v>532</v>
       </c>
       <c r="C27" s="1">
         <v>6.7799999999999995E-5</v>
@@ -41952,8 +42119,8 @@
       </c>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>67</v>
+      <c r="B28" s="6" t="s">
+        <v>533</v>
       </c>
       <c r="C28" s="1">
         <v>1.8900199999999999E-5</v>
@@ -41967,8 +42134,8 @@
       </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>68</v>
+      <c r="B29" s="6" t="s">
+        <v>534</v>
       </c>
       <c r="C29" s="1">
         <v>2.0086000000000001E-6</v>
@@ -41982,8 +42149,8 @@
       </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>69</v>
+      <c r="B30" s="6" t="s">
+        <v>535</v>
       </c>
       <c r="C30">
         <v>9.9198015299999998E-4</v>
@@ -41997,8 +42164,8 @@
       </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>70</v>
+      <c r="B31" s="6" t="s">
+        <v>536</v>
       </c>
       <c r="C31">
         <v>1.7572E-4</v>
@@ -42012,8 +42179,8 @@
       </c>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>71</v>
+      <c r="B32" s="6" t="s">
+        <v>537</v>
       </c>
       <c r="C32" s="1">
         <v>3.6451422000000002E-5</v>
@@ -42026,9 +42193,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>72</v>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>538</v>
       </c>
       <c r="C33">
         <v>2.9213824999999999E-3</v>
@@ -42041,9 +42208,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>73</v>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" s="6" t="s">
+        <v>539</v>
       </c>
       <c r="C34" s="1">
         <v>3.9010400000000002E-5</v>
@@ -42056,9 +42223,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>74</v>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" s="6" t="s">
+        <v>540</v>
       </c>
       <c r="C35">
         <v>1.81900468E-4</v>
@@ -42070,10 +42237,13 @@
         <f t="shared" si="0"/>
         <v>9.0950234000000002E-5</v>
       </c>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
-        <v>75</v>
+      <c r="H35" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" s="6" t="s">
+        <v>541</v>
       </c>
       <c r="C36" s="1">
         <v>5.6941618E-5</v>
@@ -42086,9 +42256,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>76</v>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>542</v>
       </c>
       <c r="C37" s="1">
         <v>1.3499999999999999E-5</v>
@@ -42101,9 +42271,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>77</v>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" s="6" t="s">
+        <v>543</v>
       </c>
       <c r="C38" s="1">
         <v>1.8235641E-6</v>
@@ -42116,9 +42286,9 @@
         <v>4.1030192250000001E-6</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>78</v>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" s="6" t="s">
+        <v>544</v>
       </c>
       <c r="C39">
         <v>1.7155999999999999E-4</v>
@@ -42131,9 +42301,9 @@
         <v>3.8601E-4</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>79</v>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" s="6" t="s">
+        <v>545</v>
       </c>
       <c r="C40" s="1">
         <v>2.7299799999999999E-5</v>
@@ -42146,9 +42316,9 @@
         <v>5.5418594000000005E-4</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>80</v>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" s="6" t="s">
+        <v>567</v>
       </c>
       <c r="C41">
         <v>5.0621125200000002E-3</v>
@@ -42161,7 +42331,7 @@
         <v>0.102760884156</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E42">
         <f>SUM(E2:E41)</f>
         <v>6.7324877651173081</v>
@@ -42169,271 +42339,271 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="47.140625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="23.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" t="s">
-        <v>18</v>
-      </c>
-      <c r="S1" t="s">
-        <v>19</v>
-      </c>
-      <c r="T1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" t="s">
-        <v>22</v>
-      </c>
-      <c r="W1" t="s">
-        <v>23</v>
-      </c>
-      <c r="X1" t="s">
-        <v>24</v>
+        <v>546</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <f>-B1*1000000</f>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
+      <c r="A2" t="s">
+        <v>547</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>-1.28576E-8</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>-1.6199999999999999E-7</v>
-      </c>
-      <c r="L2" s="1">
-        <v>-8.5400000000000002E-5</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-9.3600000000000008E-9</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="1">
-        <v>-1.7977500000000001E-6</v>
-      </c>
-      <c r="V2" s="1">
-        <v>-5.355E-7</v>
-      </c>
-      <c r="W2" s="1">
-        <v>-9.0780000000000002E-6</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
+        <f>-B2*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
       <c r="AC2" s="1"/>
       <c r="AD2" s="1"/>
       <c r="AE2" s="1"/>
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>-A2*1000000</f>
-        <v>0</v>
+      <c r="A3" t="s">
+        <v>548</v>
       </c>
       <c r="B3">
-        <f>-B2*1000000</f>
         <v>0</v>
       </c>
       <c r="C3">
-        <f>-C2*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <f t="shared" ref="D3:W3" si="0">-D2*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="E3">
+        <f t="shared" ref="C3:C19" si="0">-B3*1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H3">
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>550</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1.28576E-8</v>
+      </c>
+      <c r="C5">
         <f t="shared" si="0"/>
         <v>1.28576E-2</v>
       </c>
-      <c r="I3">
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3">
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B8" s="1">
+        <v>-1.6199999999999999E-7</v>
+      </c>
+      <c r="C8">
         <f t="shared" si="0"/>
         <v>0.16200000000000001</v>
       </c>
-      <c r="L3">
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>554</v>
+      </c>
+      <c r="B9" s="1">
+        <v>-8.5400000000000002E-5</v>
+      </c>
+      <c r="C9">
         <f t="shared" si="0"/>
         <v>85.4</v>
       </c>
-      <c r="M3">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>557</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
         <f t="shared" si="0"/>
-        <v>9.3600000000000003E-3</v>
-      </c>
-      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>560</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>561</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3">
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>562</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U3">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>563</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.7977500000000001E-6</v>
+      </c>
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>1.79775</v>
       </c>
-      <c r="V3">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>564</v>
+      </c>
+      <c r="B18" s="1">
+        <v>-5.355E-7</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>0.53549999999999998</v>
       </c>
-      <c r="W3">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>565</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-9.0780000000000002E-6</v>
+      </c>
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>9.0779999999999994</v>
       </c>
-      <c r="X3">
-        <f t="shared" ref="X3" si="1">X2*1000000</f>
-        <v>0</v>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>444</v>
+      </c>
+      <c r="C21">
+        <f>SUM(C1:C19)</f>
+        <v>96.986107599999997</v>
       </c>
     </row>
   </sheetData>
@@ -42446,11 +42616,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="4" customWidth="1"/>
@@ -42921,7 +43091,7 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>4</v>
+        <v>546</v>
       </c>
       <c r="C39" s="5">
         <v>0.2</v>
@@ -42929,7 +43099,7 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>5</v>
+        <v>547</v>
       </c>
       <c r="C40" s="5">
         <v>0.1</v>
@@ -42937,7 +43107,7 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>548</v>
       </c>
       <c r="C41" s="5">
         <v>7</v>
@@ -42945,7 +43115,7 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
+        <v>549</v>
       </c>
       <c r="C42" s="5">
         <v>3.4</v>
@@ -42953,7 +43123,7 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>8</v>
+        <v>550</v>
       </c>
       <c r="C43" s="5">
         <v>0.43</v>
@@ -42961,7 +43131,7 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>551</v>
       </c>
       <c r="C44" s="5">
         <v>0.25</v>
@@ -42969,7 +43139,7 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>10</v>
+        <v>552</v>
       </c>
       <c r="C45" s="5">
         <v>0.03</v>
@@ -42977,7 +43147,7 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>553</v>
       </c>
       <c r="C46" s="5">
         <v>0.03</v>
@@ -42985,7 +43155,7 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>554</v>
       </c>
       <c r="C47" s="5">
         <v>0.03</v>
@@ -42993,7 +43163,7 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>13</v>
+        <v>555</v>
       </c>
       <c r="C48" s="5">
         <v>0.25</v>
@@ -43001,7 +43171,7 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>14</v>
+        <v>556</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -43009,7 +43179,7 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>15</v>
+        <v>557</v>
       </c>
       <c r="C50" s="5">
         <v>1.2</v>
@@ -43017,7 +43187,7 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
       <c r="C51" s="5">
         <v>0.3</v>
@@ -43025,7 +43195,7 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>17</v>
+        <v>559</v>
       </c>
       <c r="C52" s="5">
         <v>0.1</v>
@@ -43033,7 +43203,7 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>18</v>
+        <v>560</v>
       </c>
       <c r="C53" s="5">
         <v>0.1</v>
@@ -43041,7 +43211,7 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>19</v>
+        <v>561</v>
       </c>
       <c r="C54" s="5">
         <v>0.3</v>
@@ -43049,7 +43219,7 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>20</v>
+        <v>562</v>
       </c>
       <c r="C55" s="5">
         <v>0.02</v>
@@ -43057,7 +43227,7 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>21</v>
+        <v>563</v>
       </c>
       <c r="C56" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43065,7 +43235,7 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>564</v>
       </c>
       <c r="C57" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43073,7 +43243,7 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>23</v>
+        <v>565</v>
       </c>
       <c r="C58" s="5">
         <v>0.02</v>
@@ -43081,7 +43251,7 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>24</v>
+        <v>570</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -43089,7 +43259,7 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>15</v>
+        <v>557</v>
       </c>
       <c r="C60" s="5">
         <v>1.2</v>
@@ -43097,7 +43267,7 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>16</v>
+        <v>558</v>
       </c>
       <c r="C61" s="5">
         <v>0.1</v>
@@ -43105,7 +43275,7 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>559</v>
       </c>
       <c r="C62" s="5">
         <v>0.1</v>
@@ -43113,7 +43283,7 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>18</v>
+        <v>560</v>
       </c>
       <c r="C63" s="5">
         <v>0.4</v>
@@ -43121,7 +43291,7 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>19</v>
+        <v>561</v>
       </c>
       <c r="C64" s="5">
         <v>0.3</v>
@@ -43129,7 +43299,7 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>562</v>
       </c>
       <c r="C65" s="5">
         <v>0.02</v>
@@ -43137,7 +43307,7 @@
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>21</v>
+        <v>563</v>
       </c>
       <c r="C66" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43145,7 +43315,7 @@
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>564</v>
       </c>
       <c r="C67" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43153,7 +43323,7 @@
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>565</v>
       </c>
       <c r="C68" s="5">
         <v>0.02</v>
@@ -43176,4 +43346,182 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="75.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>568</v>
+      </c>
+      <c r="B1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>546</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>547</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>549</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>551</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>552</v>
+      </c>
+      <c r="B8">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>553</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>554</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>558</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>559</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>560</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>561</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>562</v>
+      </c>
+      <c r="B17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>563</v>
+      </c>
+      <c r="B18">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>564</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>565</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Masterarbeit_daten/6.6.4/Gold.xlsx
+++ b/Masterarbeit_daten/6.6.4/Gold.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="11760" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Partprice" sheetId="5" r:id="rId5"/>
     <sheet name="Inputs" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1333" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1373" uniqueCount="597">
   <si>
     <t>Größensicht</t>
   </si>
@@ -1544,9 +1544,6 @@
     <t>Rest</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t xml:space="preserve">Aluminium (E) </t>
   </si>
   <si>
@@ -1737,6 +1734,87 @@
   </si>
   <si>
     <t>Lotpaste SnAg3.5 PE</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/aluminum/myb1-2012-alumi.pdf</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/lead/myb1-2011-lead.pdf</t>
+  </si>
+  <si>
+    <t>Year average</t>
+  </si>
+  <si>
+    <t>Metalname</t>
+  </si>
+  <si>
+    <t>Lead metal</t>
+  </si>
+  <si>
+    <t>Aluminum metal</t>
+  </si>
+  <si>
+    <t>Chromium metal</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/chromium/myb1-2012-chrom.pdf</t>
+  </si>
+  <si>
+    <t>Cobalt (minimum of 99.8% cobalt)</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/cobalt/myb1-2012-cobal.pdf</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/gold/myb1-2011-gold.pdf</t>
+  </si>
+  <si>
+    <t>Gold metal</t>
+  </si>
+  <si>
+    <t>Copper (London Metal Exchange, highgrade)</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/copper/mcs-2014-coppe.pdf</t>
+  </si>
+  <si>
+    <t>Nickel metal</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/nickel/myb1-2011-nicke.pdf</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/platinum/mcs-2014-plati.pdf</t>
+  </si>
+  <si>
+    <t>Palladium metal</t>
+  </si>
+  <si>
+    <t>Platinum metal</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/silver/myb1-2011-silve.pdf</t>
+  </si>
+  <si>
+    <t>Steal (hot-rolled steel sheet)</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/iron_&amp;_steel/myb1-2012-feste.pdf</t>
+  </si>
+  <si>
+    <t>Zinc (super high grade (SHG) zinc, 99.995% pure)</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/zinc/myb1-2012-zinc.pdf</t>
+  </si>
+  <si>
+    <t>http://minerals.usgs.gov/minerals/pubs/commodity/tin/myb1-2012-tin.pdf</t>
+  </si>
+  <si>
+    <t>Tin metal</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1769,6 +1847,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1787,10 +1873,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1802,9 +1889,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1880,6 +1972,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1902,6 +1995,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1924,6 +2018,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="2"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1946,6 +2041,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -1968,6 +2064,7 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2060,6 +2157,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:txPr>
         <a:bodyPr/>
@@ -2538,6 +2636,7 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="11"/>
+              <c:layout/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
@@ -2641,67 +2740,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.6441207377999998E-4</c:v>
+                  <c:v>6.9605074396000008E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.982574E-6</c:v>
+                  <c:v>2.3790887999999998E-6</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5119999999999999E-8</c:v>
+                  <c:v>3.0143999999999995E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.420362E-5</c:v>
+                  <c:v>6.9965979999999999E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.2369600000000001E-6</c:v>
+                  <c:v>2.1142880000000003E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.85362609840000003</c:v>
+                  <c:v>1.0179491223420001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0072160000000041</c:v>
+                  <c:v>2.3936050800000048</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.7554030359999997E-2</c:v>
+                  <c:v>4.1537033579999993E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.9627131216000002E-2</c:v>
+                  <c:v>2.1708796648E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.2016660082999999E-3</c:v>
+                  <c:v>1.6882301588999997E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.0215944600000002E-3</c:v>
+                  <c:v>2.8401541799999994E-3</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.8128685603999997</c:v>
+                  <c:v>2.2953977407539998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>2.8128685603999997</c:v>
+                  <c:v>2.2953977407539998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.2026152</c:v>
+                  <c:v>0.23000139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.58725225057599995</c:v>
+                  <c:v>1.12466741826528</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.10402624000000001</c:v>
+                  <c:v>0.19922430720000001</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0950234000000002E-5</c:v>
+                  <c:v>1.1459729484E-4</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.1030192250000001E-6</c:v>
+                  <c:v>3.5559499949999999E-6</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8601E-4</c:v>
+                  <c:v>3.3454199999999996E-4</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.5418594000000005E-4</c:v>
+                  <c:v>5.7602578E-4</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.102760884156</c:v>
+                  <c:v>0.10681057417200002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4495,7 +4594,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4505,17 +4604,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF422"/>
   <sheetViews>
-    <sheetView topLeftCell="AC25" workbookViewId="0">
-      <selection activeCell="F41" sqref="A41:XFD41"/>
+    <sheetView topLeftCell="L64" workbookViewId="0">
+      <selection activeCell="Q96" sqref="Q96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="29.5703125" customWidth="1"/>
     <col min="7" max="7" width="15.140625" customWidth="1"/>
     <col min="8" max="8" width="33.28515625" customWidth="1"/>
     <col min="14" max="14" width="11.42578125" customWidth="1"/>
     <col min="16" max="16" width="39.140625" customWidth="1"/>
+    <col min="19" max="20" width="34.85546875" customWidth="1"/>
     <col min="22" max="22" width="17.42578125" customWidth="1"/>
     <col min="27" max="27" width="33.5703125" customWidth="1"/>
     <col min="28" max="28" width="46.85546875" customWidth="1"/>
@@ -41361,7 +41461,7 @@
       <selection sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="83.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -41373,7 +41473,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -41388,7 +41488,7 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -41403,7 +41503,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3" s="1">
         <v>-1.664E-5</v>
@@ -41422,7 +41522,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4" s="1">
         <v>-2.2400000000000002E-6</v>
@@ -41439,7 +41539,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="1">
         <v>-2.5509100000000002E-7</v>
@@ -41454,7 +41554,7 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -41469,7 +41569,7 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -41484,7 +41584,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -41499,7 +41599,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -41514,7 +41614,7 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -41529,7 +41629,7 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -41544,7 +41644,7 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -41559,7 +41659,7 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -41574,7 +41674,7 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -41589,7 +41689,7 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -41604,7 +41704,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -41619,7 +41719,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -41634,7 +41734,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -41649,7 +41749,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -41697,18 +41797,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AH42"/>
+  <dimension ref="B1:AH47"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="M54" sqref="M54"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.7109375" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" customWidth="1"/>
+    <col min="6" max="6" width="44.28515625" customWidth="1"/>
+    <col min="7" max="7" width="85.42578125" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:34" x14ac:dyDescent="0.25">
@@ -41724,25 +41827,43 @@
       <c r="E1" t="s">
         <v>448</v>
       </c>
+      <c r="F1" t="s">
+        <v>574</v>
+      </c>
+      <c r="G1" t="s">
+        <v>570</v>
+      </c>
+      <c r="H1" t="s">
+        <v>573</v>
+      </c>
     </row>
     <row r="2" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B2" s="6" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C2">
         <v>3.1638670179999999E-4</v>
       </c>
       <c r="D2">
-        <v>2.1</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="E2">
         <f>C2*D2</f>
-        <v>6.6441207377999998E-4</v>
+        <v>6.9605074396000008E-4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>576</v>
+      </c>
+      <c r="G2" t="s">
+        <v>571</v>
+      </c>
+      <c r="H2">
+        <v>2012</v>
       </c>
     </row>
     <row r="3" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B3" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C3">
         <v>2.5105142999999998E-3</v>
@@ -41757,7 +41878,7 @@
     </row>
     <row r="4" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C4" s="1">
         <v>1.7401199999999999E-8</v>
@@ -41772,7 +41893,7 @@
     </row>
     <row r="5" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C5" s="1">
         <v>1.4131835999999999E-5</v>
@@ -41787,70 +41908,106 @@
     </row>
     <row r="6" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C6" s="1">
         <v>9.91287E-7</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1.982574E-6</v>
+        <v>2.3790887999999998E-6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>575</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>572</v>
+      </c>
+      <c r="H6">
+        <v>2011</v>
       </c>
     </row>
     <row r="7" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C7" s="1">
         <v>1.256E-8</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>2.5119999999999999E-8</v>
+        <v>3.0143999999999995E-8</v>
+      </c>
+      <c r="F7" t="s">
+        <v>575</v>
+      </c>
+      <c r="G7" t="s">
+        <v>572</v>
+      </c>
+      <c r="H7">
+        <v>2011</v>
       </c>
     </row>
     <row r="8" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C8" s="1">
         <v>5.2606000000000001E-6</v>
       </c>
       <c r="D8">
-        <v>2.7</v>
+        <v>13.3</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>1.420362E-5</v>
+        <v>6.9965979999999999E-5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>577</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>578</v>
+      </c>
+      <c r="H8">
+        <v>2012</v>
       </c>
     </row>
     <row r="9" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C9" s="1">
         <v>7.2160000000000006E-8</v>
       </c>
       <c r="D9">
-        <v>31</v>
+        <v>29.3</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>2.2369600000000001E-6</v>
+        <v>2.1142880000000003E-6</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>579</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>580</v>
+      </c>
+      <c r="H9">
+        <v>2012</v>
       </c>
       <c r="AH9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C10" s="1">
         <v>3.7001800000000002E-5</v>
@@ -41865,7 +42022,7 @@
     </row>
     <row r="11" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C11" s="1">
         <v>6.6000000000000005E-5</v>
@@ -41880,7 +42037,7 @@
     </row>
     <row r="12" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C12">
         <v>5.5667235900000002E-3</v>
@@ -41895,7 +42052,7 @@
     </row>
     <row r="13" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C13">
         <v>1.044E-4</v>
@@ -41910,7 +42067,7 @@
     </row>
     <row r="14" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C14">
         <v>5.5944999999999996E-4</v>
@@ -41925,7 +42082,7 @@
     </row>
     <row r="15" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C15" s="1">
         <v>8.4201699999999997E-5</v>
@@ -41940,7 +42097,7 @@
     </row>
     <row r="16" spans="2:34" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C16">
         <v>5.3119999999999999E-3</v>
@@ -41953,114 +42110,177 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C17" s="1">
         <v>2.0132691E-5</v>
       </c>
       <c r="D17">
-        <v>42400</v>
+        <v>50562</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>0.85362609840000003</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.0179491223420001</v>
+      </c>
+      <c r="F17" t="s">
+        <v>582</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="H17">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C18" s="1">
         <v>4.7340000000000099E-5</v>
       </c>
       <c r="D18">
-        <v>42400</v>
+        <v>50562</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>2.0072160000000041</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.3936050800000048</v>
+      </c>
+      <c r="F18" t="s">
+        <v>582</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>581</v>
+      </c>
+      <c r="H18">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C19">
         <v>5.6900045999999996E-3</v>
       </c>
       <c r="D19">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>3.7554030359999997E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+        <v>4.1537033579999993E-2</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>584</v>
+      </c>
+      <c r="H19">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C20">
         <v>2.9738077600000002E-3</v>
       </c>
       <c r="D20">
-        <v>6.6</v>
+        <v>7.3</v>
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>1.9627131216000002E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.1708796648E-2</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>583</v>
+      </c>
+      <c r="G20" t="s">
+        <v>584</v>
+      </c>
+      <c r="H20">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" s="1">
         <v>7.3721840999999995E-5</v>
       </c>
       <c r="D21">
-        <v>16.3</v>
+        <v>22.9</v>
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>1.2016660082999999E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.6882301588999997E-3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>585</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="H21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C22">
         <v>1.2402419999999999E-4</v>
       </c>
       <c r="D22">
-        <v>16.3</v>
+        <v>22.9</v>
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>2.0215944600000002E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.8401541799999994E-3</v>
+      </c>
+      <c r="F22" t="s">
+        <v>585</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>586</v>
+      </c>
+      <c r="H22">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C23" s="1">
         <v>9.6995467599999996E-5</v>
       </c>
       <c r="D23">
-        <v>29000</v>
+        <v>23665</v>
       </c>
       <c r="E23">
         <f t="shared" si="0"/>
-        <v>2.8128685603999997</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+        <v>2.2953977407539998</v>
+      </c>
+      <c r="F23" t="s">
+        <v>588</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H23">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C24" s="1">
         <v>2.94E-5</v>
@@ -42073,24 +42293,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C25" s="1">
         <v>4.7339999999999999E-6</v>
       </c>
       <c r="D25">
-        <v>42800</v>
+        <v>48585</v>
       </c>
       <c r="E25">
         <f t="shared" si="0"/>
-        <v>0.2026152</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.23000139</v>
+      </c>
+      <c r="F25" t="s">
+        <v>589</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>587</v>
+      </c>
+      <c r="H25">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C26" s="1">
         <v>3.9895799999999998E-5</v>
@@ -42103,9 +42332,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C27" s="1">
         <v>6.7799999999999995E-5</v>
@@ -42118,9 +42347,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C28" s="1">
         <v>1.8900199999999999E-5</v>
@@ -42133,9 +42362,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C29" s="1">
         <v>2.0086000000000001E-6</v>
@@ -42148,39 +42377,51 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C30">
         <v>9.9198015299999998E-4</v>
       </c>
       <c r="D30">
-        <v>592</v>
+        <v>1133.76</v>
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
-        <v>0.58725225057599995</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>1.12466741826528</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="H30">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C31">
         <v>1.7572E-4</v>
       </c>
       <c r="D31">
-        <v>592</v>
+        <v>1133.76</v>
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
-        <v>0.10402624000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>0.19922430720000001</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>590</v>
+      </c>
+      <c r="H31">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" s="6" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C32" s="1">
         <v>3.6451422000000002E-5</v>
@@ -42195,7 +42436,7 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C33">
         <v>2.9213824999999999E-3</v>
@@ -42210,7 +42451,7 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="6" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C34" s="1">
         <v>3.9010400000000002E-5</v>
@@ -42225,25 +42466,31 @@
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="6" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C35">
         <v>1.81900468E-4</v>
       </c>
       <c r="D35">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="E35">
         <f t="shared" si="0"/>
-        <v>9.0950234000000002E-5</v>
-      </c>
-      <c r="H35" t="s">
-        <v>506</v>
+        <v>1.1459729484E-4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>591</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>592</v>
+      </c>
+      <c r="H35">
+        <v>2012</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="6" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C36" s="1">
         <v>5.6941618E-5</v>
@@ -42258,7 +42505,7 @@
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C37" s="1">
         <v>1.3499999999999999E-5</v>
@@ -42273,74 +42520,131 @@
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C38" s="1">
         <v>1.8235641E-6</v>
       </c>
       <c r="D38">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="E38">
         <f t="shared" si="0"/>
-        <v>4.1030192250000001E-6</v>
+        <v>3.5559499949999999E-6</v>
+      </c>
+      <c r="F38" t="s">
+        <v>593</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="H38">
+        <v>2012</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C39">
         <v>1.7155999999999999E-4</v>
       </c>
       <c r="D39">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="E39">
         <f t="shared" si="0"/>
-        <v>3.8601E-4</v>
+        <v>3.3454199999999996E-4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>593</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>594</v>
+      </c>
+      <c r="H39">
+        <v>2012</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" s="6" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C40" s="1">
         <v>2.7299799999999999E-5</v>
       </c>
       <c r="D40">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="E40">
         <f t="shared" si="0"/>
-        <v>5.5418594000000005E-4</v>
+        <v>5.7602578E-4</v>
+      </c>
+      <c r="F40" t="s">
+        <v>596</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>595</v>
+      </c>
+      <c r="H40">
+        <v>2012</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C41">
         <v>5.0621125200000002E-3</v>
       </c>
       <c r="D41">
-        <v>20.3</v>
+        <v>21.1</v>
       </c>
       <c r="E41">
         <f t="shared" si="0"/>
-        <v>0.102760884156</v>
+        <v>0.10681057417200002</v>
+      </c>
+      <c r="F41" t="s">
+        <v>596</v>
+      </c>
+      <c r="G41" t="s">
+        <v>595</v>
+      </c>
+      <c r="H41">
+        <v>2012</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E42">
         <f>SUM(E2:E41)</f>
-        <v>6.7324877651173081</v>
-      </c>
+        <v>7.4372291085697793</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" s="5"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G17" r:id="rId1"/>
+    <hyperlink ref="G18" r:id="rId2"/>
+    <hyperlink ref="G21" r:id="rId3"/>
+    <hyperlink ref="G22" r:id="rId4"/>
+    <hyperlink ref="G25" r:id="rId5"/>
+    <hyperlink ref="G30" r:id="rId6"/>
+    <hyperlink ref="G31" r:id="rId7"/>
+    <hyperlink ref="G38" r:id="rId8"/>
+    <hyperlink ref="G39" r:id="rId9"/>
+    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="G8" r:id="rId11"/>
+    <hyperlink ref="G9" r:id="rId12"/>
+    <hyperlink ref="G19" r:id="rId13"/>
+    <hyperlink ref="G23" r:id="rId14"/>
+    <hyperlink ref="G35" r:id="rId15"/>
+    <hyperlink ref="G40" r:id="rId16"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId17"/>
+  <drawing r:id="rId18"/>
 </worksheet>
 </file>
 
@@ -42348,11 +42652,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="47.140625" bestFit="1" customWidth="1"/>
@@ -42361,7 +42665,7 @@
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -42373,7 +42677,7 @@
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -42395,7 +42699,7 @@
     </row>
     <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -42407,7 +42711,7 @@
     </row>
     <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -42419,7 +42723,7 @@
     </row>
     <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B5" s="1">
         <v>-1.28576E-8</v>
@@ -42431,7 +42735,7 @@
     </row>
     <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -42443,7 +42747,7 @@
     </row>
     <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -42455,7 +42759,7 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B8" s="1">
         <v>-1.6199999999999999E-7</v>
@@ -42467,7 +42771,7 @@
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B9" s="1">
         <v>-8.5400000000000002E-5</v>
@@ -42479,7 +42783,7 @@
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -42491,7 +42795,7 @@
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -42503,7 +42807,7 @@
     </row>
     <row r="12" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -42515,7 +42819,7 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -42527,7 +42831,7 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -42539,7 +42843,7 @@
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -42551,7 +42855,7 @@
     </row>
     <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -42563,7 +42867,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B17" s="1">
         <v>-1.7977500000000001E-6</v>
@@ -42575,7 +42879,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B18" s="1">
         <v>-5.355E-7</v>
@@ -42587,7 +42891,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B19" s="1">
         <v>-9.0780000000000002E-6</v>
@@ -42616,11 +42920,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D70"/>
   <sheetViews>
-    <sheetView topLeftCell="C34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="51.85546875" style="4" customWidth="1"/>
@@ -43091,7 +43395,7 @@
     </row>
     <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C39" s="5">
         <v>0.2</v>
@@ -43099,7 +43403,7 @@
     </row>
     <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C40" s="5">
         <v>0.1</v>
@@ -43107,7 +43411,7 @@
     </row>
     <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C41" s="5">
         <v>7</v>
@@ -43115,7 +43419,7 @@
     </row>
     <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C42" s="5">
         <v>3.4</v>
@@ -43123,7 +43427,7 @@
     </row>
     <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C43" s="5">
         <v>0.43</v>
@@ -43131,7 +43435,7 @@
     </row>
     <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C44" s="5">
         <v>0.25</v>
@@ -43139,7 +43443,7 @@
     </row>
     <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C45" s="5">
         <v>0.03</v>
@@ -43147,7 +43451,7 @@
     </row>
     <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C46" s="5">
         <v>0.03</v>
@@ -43155,7 +43459,7 @@
     </row>
     <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C47" s="5">
         <v>0.03</v>
@@ -43163,7 +43467,7 @@
     </row>
     <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C48" s="5">
         <v>0.25</v>
@@ -43171,7 +43475,7 @@
     </row>
     <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C49" s="5">
         <v>0</v>
@@ -43179,7 +43483,7 @@
     </row>
     <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C50" s="5">
         <v>1.2</v>
@@ -43187,7 +43491,7 @@
     </row>
     <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C51" s="5">
         <v>0.3</v>
@@ -43195,7 +43499,7 @@
     </row>
     <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C52" s="5">
         <v>0.1</v>
@@ -43203,7 +43507,7 @@
     </row>
     <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C53" s="5">
         <v>0.1</v>
@@ -43211,7 +43515,7 @@
     </row>
     <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C54" s="5">
         <v>0.3</v>
@@ -43219,7 +43523,7 @@
     </row>
     <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C55" s="5">
         <v>0.02</v>
@@ -43227,7 +43531,7 @@
     </row>
     <row r="56" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C56" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43235,7 +43539,7 @@
     </row>
     <row r="57" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C57" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43243,7 +43547,7 @@
     </row>
     <row r="58" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C58" s="5">
         <v>0.02</v>
@@ -43251,7 +43555,7 @@
     </row>
     <row r="59" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C59" s="5">
         <v>0</v>
@@ -43259,7 +43563,7 @@
     </row>
     <row r="60" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C60" s="5">
         <v>1.2</v>
@@ -43267,7 +43571,7 @@
     </row>
     <row r="61" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C61" s="5">
         <v>0.1</v>
@@ -43275,7 +43579,7 @@
     </row>
     <row r="62" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C62" s="5">
         <v>0.1</v>
@@ -43283,7 +43587,7 @@
     </row>
     <row r="63" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C63" s="5">
         <v>0.4</v>
@@ -43291,7 +43595,7 @@
     </row>
     <row r="64" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C64" s="5">
         <v>0.3</v>
@@ -43299,7 +43603,7 @@
     </row>
     <row r="65" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C65" s="5">
         <v>0.02</v>
@@ -43307,7 +43611,7 @@
     </row>
     <row r="66" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C66" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43315,7 +43619,7 @@
     </row>
     <row r="67" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C67" s="5">
         <v>1.4999999999999999E-2</v>
@@ -43323,7 +43627,7 @@
     </row>
     <row r="68" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C68" s="5">
         <v>0.02</v>
@@ -43353,25 +43657,25 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A20"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="75.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" t="s">
         <v>568</v>
-      </c>
-      <c r="B1" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2">
         <v>2</v>
@@ -43379,7 +43683,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -43387,7 +43691,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -43395,7 +43699,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -43403,7 +43707,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -43411,7 +43715,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -43419,7 +43723,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B8">
         <v>31</v>
@@ -43427,7 +43731,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -43435,7 +43739,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -43443,7 +43747,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11">
         <v>6</v>
@@ -43451,7 +43755,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -43459,7 +43763,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -43467,7 +43771,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -43475,7 +43779,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B15">
         <v>7</v>
@@ -43483,7 +43787,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -43491,7 +43795,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B17">
         <v>6</v>
@@ -43499,7 +43803,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B18">
         <v>47</v>
@@ -43507,7 +43811,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B19">
         <v>5</v>
@@ -43515,7 +43819,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B20">
         <v>20</v>
